--- a/Planillas para imprimir/20201010.xlsx
+++ b/Planillas para imprimir/20201010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudio\Documents\GitHub\Almacoop\Planillas para imprimir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118AC158-7633-46A9-A282-E65010D17CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30479858-EE8C-44A5-9C90-8FC3E735E1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BEC25EDC-8014-4B51-89C4-4EA03B127D7A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="335">
   <si>
     <t>TipoDespacho</t>
   </si>
@@ -1027,6 +1027,9 @@
   </si>
   <si>
     <t>Yerba Mate Titrayju - 1 kg.</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1103,22 +1106,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,28 +1442,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B1A685-8050-4AE6-903F-970C40827045}">
-  <dimension ref="A1:J558"/>
+  <dimension ref="A1:M558"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E525" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J558" sqref="A1:J558"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="112.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1468,26 +1478,30 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="str">
+        <f ca="1">SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1), ".xlsx", "")</f>
+        <v>20201010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1500,18 +1514,22 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="4">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="7">
         <v>883</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="1" t="str">
+        <f t="shared" ref="L2:L65" si="0">IF(J2="","",IF(LEFT(J2,1)="-","update Pedido set CantidadFaltante=" &amp; -J2 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C2 &amp; "' and Producto='" &amp; G2 &amp; "' ",IF(J2="x","update Pedido set CantidadFaltante=" &amp; E2&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C2 &amp; "' and Producto='" &amp; G2 &amp; "' ","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1537,8 +1555,12 @@
       <c r="I3" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1564,8 +1586,12 @@
       <c r="I4" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1591,8 +1617,12 @@
       <c r="I5" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1618,8 +1648,12 @@
       <c r="I6" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1632,18 +1666,22 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="4">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7">
         <v>1115</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1669,8 +1707,12 @@
       <c r="I8" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1696,8 +1738,12 @@
       <c r="I9" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1723,8 +1769,12 @@
       <c r="I10" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1750,8 +1800,12 @@
       <c r="I11" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1777,8 +1831,12 @@
       <c r="I12" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1804,8 +1862,12 @@
       <c r="I13" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1818,18 +1880,22 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="7">
         <v>892</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1855,8 +1921,12 @@
       <c r="I15" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1882,8 +1952,12 @@
       <c r="I16" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1909,8 +1983,12 @@
       <c r="I17" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1936,8 +2014,12 @@
       <c r="I18" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -1950,18 +2032,22 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="4">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="7">
         <v>2206</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1987,8 +2073,15 @@
       <c r="I20" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f ca="1">IF(J20="","",IF(LEFT(J20,1)="-","update Pedido set CantidadFaltante=" &amp; -J20 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C20 &amp; "' and Producto='" &amp; G20 &amp; "' ",IF(J20="x","update Pedido set CantidadFaltante=" &amp; E20&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C20 &amp; "' and Producto='" &amp; G20 &amp; "' ","")))</f>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Massuco, Beatriz' and Producto='Cerveza Artesanal Scotish (roja), Santa Malta 330 cc.' </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2014,8 +2107,12 @@
       <c r="I21" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="1" t="str">
+        <f t="shared" ref="L21:L84" si="1">IF(J21="","",IF(LEFT(J21,1)="-","update Pedido set CantidadFaltante=" &amp; -J21 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C21 &amp; "' and Producto='" &amp; G21 &amp; "' ",IF(J21="x","update Pedido set CantidadFaltante=" &amp; E21&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C21 &amp; "' and Producto='" &amp; G21 &amp; "' ","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -2041,8 +2138,12 @@
       <c r="I22" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2068,8 +2169,12 @@
       <c r="I23" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2095,8 +2200,12 @@
       <c r="I24" s="2">
         <v>800</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2122,8 +2231,12 @@
       <c r="I25" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2149,8 +2262,12 @@
       <c r="I26" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2176,8 +2293,12 @@
       <c r="I27" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2190,18 +2311,22 @@
       <c r="D28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="4">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="7">
         <v>3648</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -2227,8 +2352,12 @@
       <c r="I29" s="2">
         <v>615</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -2254,8 +2383,12 @@
       <c r="I30" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -2281,8 +2414,12 @@
       <c r="I31" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -2308,8 +2445,12 @@
       <c r="I32" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -2335,8 +2476,12 @@
       <c r="I33" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -2362,8 +2507,15 @@
       <c r="I34" s="2">
         <v>370</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='del Mazo, Jimena' and Producto='Jabon Liquido para ropa, concentrado x 5 litros. Distribuidora Total' </v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -2389,8 +2541,12 @@
       <c r="I35" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -2416,8 +2572,12 @@
       <c r="I36" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
@@ -2443,8 +2603,12 @@
       <c r="I37" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -2470,8 +2634,12 @@
       <c r="I38" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
@@ -2497,8 +2665,12 @@
       <c r="I39" s="2">
         <v>255</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
@@ -2524,8 +2696,12 @@
       <c r="I40" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
@@ -2551,8 +2727,12 @@
       <c r="I41" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
@@ -2578,8 +2758,12 @@
       <c r="I42" s="2">
         <v>290</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -2605,8 +2789,12 @@
       <c r="I43" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -2632,8 +2820,12 @@
       <c r="I44" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -2659,8 +2851,12 @@
       <c r="I45" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -2686,8 +2882,12 @@
       <c r="I46" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -2700,18 +2900,22 @@
       <c r="D47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="4">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="7">
         <v>2008</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -2737,8 +2941,12 @@
       <c r="I48" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2764,8 +2972,12 @@
       <c r="I49" s="2">
         <v>442</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2791,8 +3003,12 @@
       <c r="I50" s="2">
         <v>620</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -2818,8 +3034,12 @@
       <c r="I51" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -2845,8 +3065,12 @@
       <c r="I52" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>10</v>
       </c>
@@ -2872,8 +3096,12 @@
       <c r="I53" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -2899,8 +3127,12 @@
       <c r="I54" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -2926,8 +3158,12 @@
       <c r="I55" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
@@ -2953,8 +3189,12 @@
       <c r="I56" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
@@ -2967,18 +3207,22 @@
       <c r="D57" s="2">
         <v>1</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="4">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="7">
         <v>1328</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
@@ -3004,8 +3248,12 @@
       <c r="I58" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
@@ -3031,8 +3279,12 @@
       <c r="I59" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
@@ -3058,8 +3310,12 @@
       <c r="I60" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
@@ -3087,8 +3343,12 @@
       <c r="I61" s="2">
         <v>184</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>10</v>
       </c>
@@ -3114,8 +3374,12 @@
       <c r="I62" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -3143,8 +3407,12 @@
       <c r="I63" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
@@ -3170,8 +3438,12 @@
       <c r="I64" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -3184,18 +3456,22 @@
       <c r="D65" s="2">
         <v>1</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="4">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="7">
         <v>1195</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -3221,8 +3497,12 @@
       <c r="I66" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
@@ -3248,8 +3528,12 @@
       <c r="I67" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
@@ -3275,8 +3559,12 @@
       <c r="I68" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
@@ -3302,8 +3590,12 @@
       <c r="I69" s="2">
         <v>370</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -3329,8 +3621,12 @@
       <c r="I70" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
@@ -3356,8 +3652,12 @@
       <c r="I71" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>10</v>
       </c>
@@ -3370,18 +3670,22 @@
       <c r="D72" s="2">
         <v>1</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="4">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="7">
         <v>1977</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -3407,8 +3711,12 @@
       <c r="I73" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
@@ -3434,8 +3742,15 @@
       <c r="I74" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L74" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=2 where Entrega='20201010' and Vecine='Petrillo, Florencia' and Producto='Arroz Doble Carolina, Namaca. 500grs' </v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -3461,8 +3776,12 @@
       <c r="I75" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
@@ -3488,8 +3807,12 @@
       <c r="I76" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>10</v>
       </c>
@@ -3515,8 +3838,12 @@
       <c r="I77" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>10</v>
       </c>
@@ -3542,8 +3869,12 @@
       <c r="I78" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>10</v>
       </c>
@@ -3569,8 +3900,12 @@
       <c r="I79" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
@@ -3596,8 +3931,12 @@
       <c r="I80" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
@@ -3623,8 +3962,12 @@
       <c r="I81" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -3637,18 +3980,22 @@
       <c r="D82" s="2">
         <v>1</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="4">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="7">
         <v>2584</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>10</v>
       </c>
@@ -3674,8 +4021,12 @@
       <c r="I83" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
@@ -3701,8 +4052,15 @@
       <c r="I84" s="2">
         <v>381</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="8">
+        <v>-2</v>
+      </c>
+      <c r="L84" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=2 where Entrega='20201010' and Vecine='Midaglia, Noelia' and Producto='Capellettis Cuatro Quesos La Litoraleña 500 grs.' </v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -3728,8 +4086,12 @@
       <c r="I85" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L85" s="1" t="str">
+        <f t="shared" ref="L85:L148" si="2">IF(J85="","",IF(LEFT(J85,1)="-","update Pedido set CantidadFaltante=" &amp; -J85 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C85 &amp; "' and Producto='" &amp; G85 &amp; "' ",IF(J85="x","update Pedido set CantidadFaltante=" &amp; E85&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C85 &amp; "' and Producto='" &amp; G85 &amp; "' ","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>10</v>
       </c>
@@ -3755,8 +4117,12 @@
       <c r="I86" s="2">
         <v>273</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L86" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
@@ -3782,8 +4148,12 @@
       <c r="I87" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L87" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>10</v>
       </c>
@@ -3809,8 +4179,12 @@
       <c r="I88" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L88" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>10</v>
       </c>
@@ -3836,8 +4210,12 @@
       <c r="I89" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>10</v>
       </c>
@@ -3863,8 +4241,12 @@
       <c r="I90" s="2">
         <v>455</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L90" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -3890,8 +4272,12 @@
       <c r="I91" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L91" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>10</v>
       </c>
@@ -3917,8 +4303,12 @@
       <c r="I92" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L92" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>10</v>
       </c>
@@ -3931,18 +4321,22 @@
       <c r="D93" s="2">
         <v>1</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="4">
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="7">
         <v>2737</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L93" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
@@ -3968,8 +4362,12 @@
       <c r="I94" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L94" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -3995,8 +4393,12 @@
       <c r="I95" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L95" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>10</v>
       </c>
@@ -4022,8 +4424,12 @@
       <c r="I96" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L96" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>10</v>
       </c>
@@ -4049,8 +4455,12 @@
       <c r="I97" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L97" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>10</v>
       </c>
@@ -4076,8 +4486,12 @@
       <c r="I98" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L98" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>10</v>
       </c>
@@ -4103,8 +4517,12 @@
       <c r="I99" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L99" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>10</v>
       </c>
@@ -4130,8 +4548,12 @@
       <c r="I100" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L100" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -4157,8 +4579,12 @@
       <c r="I101" s="2">
         <v>320</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L101" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>10</v>
       </c>
@@ -4184,8 +4610,12 @@
       <c r="I102" s="2">
         <v>205</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L102" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>10</v>
       </c>
@@ -4211,8 +4641,12 @@
       <c r="I103" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L103" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>10</v>
       </c>
@@ -4238,8 +4672,12 @@
       <c r="I104" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>10</v>
       </c>
@@ -4252,18 +4690,22 @@
       <c r="D105" s="2">
         <v>1</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="4">
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="7">
         <v>1197</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L105" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>10</v>
       </c>
@@ -4289,8 +4731,12 @@
       <c r="I106" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L106" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>10</v>
       </c>
@@ -4316,8 +4762,12 @@
       <c r="I107" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L107" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>10</v>
       </c>
@@ -4343,8 +4793,12 @@
       <c r="I108" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L108" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>10</v>
       </c>
@@ -4370,8 +4824,12 @@
       <c r="I109" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L109" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>10</v>
       </c>
@@ -4397,8 +4855,12 @@
       <c r="I110" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>10</v>
       </c>
@@ -4411,18 +4873,22 @@
       <c r="D111" s="2">
         <v>1</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="4">
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="7">
         <v>3349</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L111" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -4448,8 +4914,12 @@
       <c r="I112" s="2">
         <v>615</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L112" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>10</v>
       </c>
@@ -4475,8 +4945,12 @@
       <c r="I113" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L113" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>10</v>
       </c>
@@ -4502,8 +4976,12 @@
       <c r="I114" s="2">
         <v>316</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L114" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
@@ -4529,8 +5007,12 @@
       <c r="I115" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L115" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>10</v>
       </c>
@@ -4556,8 +5038,12 @@
       <c r="I116" s="2">
         <v>184</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L116" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>10</v>
       </c>
@@ -4583,8 +5069,12 @@
       <c r="I117" s="2">
         <v>472</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L117" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
@@ -4610,8 +5100,12 @@
       <c r="I118" s="2">
         <v>572</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L118" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>10</v>
       </c>
@@ -4637,8 +5131,12 @@
       <c r="I119" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L119" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -4664,8 +5162,12 @@
       <c r="I120" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L120" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
@@ -4678,18 +5180,22 @@
       <c r="D121" s="2">
         <v>1</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="4">
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="7">
         <v>5706</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L121" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>10</v>
       </c>
@@ -4715,8 +5221,12 @@
       <c r="I122" s="2">
         <v>212</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L122" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>10</v>
       </c>
@@ -4742,8 +5252,12 @@
       <c r="I123" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L123" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>10</v>
       </c>
@@ -4769,8 +5283,12 @@
       <c r="I124" s="2">
         <v>207</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L124" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>10</v>
       </c>
@@ -4796,8 +5314,15 @@
       <c r="I125" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J125" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L125" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Trozzoli, Hugo' and Producto='Arroz Doble Carolina, Namaca. 500grs' </v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>10</v>
       </c>
@@ -4823,8 +5348,12 @@
       <c r="I126" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L126" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>10</v>
       </c>
@@ -4850,8 +5379,12 @@
       <c r="I127" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L127" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>10</v>
       </c>
@@ -4877,8 +5410,12 @@
       <c r="I128" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L128" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>10</v>
       </c>
@@ -4904,8 +5441,12 @@
       <c r="I129" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L129" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>10</v>
       </c>
@@ -4931,8 +5472,12 @@
       <c r="I130" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L130" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>10</v>
       </c>
@@ -4958,8 +5503,12 @@
       <c r="I131" s="2">
         <v>380</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L131" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>10</v>
       </c>
@@ -4985,8 +5534,12 @@
       <c r="I132" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L132" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>10</v>
       </c>
@@ -5012,8 +5565,12 @@
       <c r="I133" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L133" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>10</v>
       </c>
@@ -5039,8 +5596,12 @@
       <c r="I134" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>10</v>
       </c>
@@ -5066,8 +5627,12 @@
       <c r="I135" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L135" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>10</v>
       </c>
@@ -5093,8 +5658,12 @@
       <c r="I136" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>10</v>
       </c>
@@ -5120,8 +5689,12 @@
       <c r="I137" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L137" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>10</v>
       </c>
@@ -5147,8 +5720,12 @@
       <c r="I138" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>10</v>
       </c>
@@ -5174,8 +5751,12 @@
       <c r="I139" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L139" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>10</v>
       </c>
@@ -5201,8 +5782,12 @@
       <c r="I140" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L140" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>10</v>
       </c>
@@ -5228,8 +5813,12 @@
       <c r="I141" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>10</v>
       </c>
@@ -5255,8 +5844,12 @@
       <c r="I142" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>10</v>
       </c>
@@ -5282,8 +5875,12 @@
       <c r="I143" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>10</v>
       </c>
@@ -5309,8 +5906,12 @@
       <c r="I144" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L144" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>10</v>
       </c>
@@ -5336,8 +5937,12 @@
       <c r="I145" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L145" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>10</v>
       </c>
@@ -5363,8 +5968,12 @@
       <c r="I146" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>10</v>
       </c>
@@ -5390,8 +5999,12 @@
       <c r="I147" s="2">
         <v>320</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>10</v>
       </c>
@@ -5417,8 +6030,12 @@
       <c r="I148" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L148" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>10</v>
       </c>
@@ -5444,8 +6061,12 @@
       <c r="I149" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L149" s="1" t="str">
+        <f t="shared" ref="L149:L212" si="3">IF(J149="","",IF(LEFT(J149,1)="-","update Pedido set CantidadFaltante=" &amp; -J149 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C149 &amp; "' and Producto='" &amp; G149 &amp; "' ",IF(J149="x","update Pedido set CantidadFaltante=" &amp; E149&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C149 &amp; "' and Producto='" &amp; G149 &amp; "' ","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>10</v>
       </c>
@@ -5471,8 +6092,12 @@
       <c r="I150" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L150" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>10</v>
       </c>
@@ -5498,8 +6123,12 @@
       <c r="I151" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L151" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>10</v>
       </c>
@@ -5525,8 +6154,12 @@
       <c r="I152" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L152" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>10</v>
       </c>
@@ -5552,8 +6185,12 @@
       <c r="I153" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L153" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>10</v>
       </c>
@@ -5579,8 +6216,12 @@
       <c r="I154" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L154" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>10</v>
       </c>
@@ -5593,18 +6234,22 @@
       <c r="D155" s="2">
         <v>1</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="4">
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="7">
         <v>4915</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L155" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>10</v>
       </c>
@@ -5630,8 +6275,12 @@
       <c r="I156" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L156" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>10</v>
       </c>
@@ -5657,8 +6306,12 @@
       <c r="I157" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L157" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>10</v>
       </c>
@@ -5684,8 +6337,12 @@
       <c r="I158" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L158" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>10</v>
       </c>
@@ -5711,8 +6368,12 @@
       <c r="I159" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L159" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>10</v>
       </c>
@@ -5738,8 +6399,12 @@
       <c r="I160" s="2">
         <v>340</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L160" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>10</v>
       </c>
@@ -5765,8 +6430,12 @@
       <c r="I161" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L161" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>10</v>
       </c>
@@ -5792,8 +6461,12 @@
       <c r="I162" s="2">
         <v>650</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L162" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>10</v>
       </c>
@@ -5819,8 +6492,12 @@
       <c r="I163" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L163" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>10</v>
       </c>
@@ -5846,8 +6523,12 @@
       <c r="I164" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L164" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>10</v>
       </c>
@@ -5873,8 +6554,12 @@
       <c r="I165" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L165" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>10</v>
       </c>
@@ -5900,8 +6585,12 @@
       <c r="I166" s="2">
         <v>455</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L166" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>10</v>
       </c>
@@ -5927,8 +6616,12 @@
       <c r="I167" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L167" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>10</v>
       </c>
@@ -5954,8 +6647,12 @@
       <c r="I168" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L168" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>10</v>
       </c>
@@ -5981,8 +6678,12 @@
       <c r="I169" s="2">
         <v>255</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L169" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>10</v>
       </c>
@@ -6008,8 +6709,12 @@
       <c r="I170" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L170" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>10</v>
       </c>
@@ -6035,8 +6740,12 @@
       <c r="I171" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L171" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>10</v>
       </c>
@@ -6062,8 +6771,15 @@
       <c r="I172" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J172" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L172" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='BLOIS, PATRICIA ESTER' and Producto='Sorrentinos Ricota, Muzzarella y Jamon La Litoraleña 500 grs.' </v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>10</v>
       </c>
@@ -6089,8 +6805,12 @@
       <c r="I173" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L173" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>10</v>
       </c>
@@ -6116,8 +6836,12 @@
       <c r="I174" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L174" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>10</v>
       </c>
@@ -6143,8 +6867,12 @@
       <c r="I175" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L175" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>10</v>
       </c>
@@ -6157,18 +6885,22 @@
       <c r="D176" s="2">
         <v>1</v>
       </c>
-      <c r="E176" s="7" t="s">
+      <c r="E176" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
-      <c r="J176" s="4">
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="7">
         <v>3471</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L176" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
@@ -6194,8 +6926,12 @@
       <c r="I177" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L177" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -6221,8 +6957,12 @@
       <c r="I178" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L178" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>10</v>
       </c>
@@ -6248,8 +6988,12 @@
       <c r="I179" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L179" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>10</v>
       </c>
@@ -6275,8 +7019,12 @@
       <c r="I180" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L180" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>10</v>
       </c>
@@ -6302,8 +7050,12 @@
       <c r="I181" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L181" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>10</v>
       </c>
@@ -6329,8 +7081,12 @@
       <c r="I182" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L182" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>10</v>
       </c>
@@ -6356,8 +7112,12 @@
       <c r="I183" s="2">
         <v>242</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L183" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>10</v>
       </c>
@@ -6383,8 +7143,12 @@
       <c r="I184" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L184" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>10</v>
       </c>
@@ -6410,8 +7174,12 @@
       <c r="I185" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L185" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>10</v>
       </c>
@@ -6437,8 +7205,12 @@
       <c r="I186" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L186" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>10</v>
       </c>
@@ -6464,8 +7236,12 @@
       <c r="I187" s="2">
         <v>520</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L187" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>10</v>
       </c>
@@ -6491,8 +7267,12 @@
       <c r="I188" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L188" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>10</v>
       </c>
@@ -6518,8 +7298,12 @@
       <c r="I189" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L189" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>10</v>
       </c>
@@ -6545,8 +7329,12 @@
       <c r="I190" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L190" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>10</v>
       </c>
@@ -6572,8 +7360,12 @@
       <c r="I191" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L191" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>10</v>
       </c>
@@ -6599,8 +7391,12 @@
       <c r="I192" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L192" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>10</v>
       </c>
@@ -6626,8 +7422,12 @@
       <c r="I193" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L193" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>10</v>
       </c>
@@ -6640,18 +7440,22 @@
       <c r="D194" s="2">
         <v>1</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E194" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="4">
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="7">
         <v>3213</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L194" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>10</v>
       </c>
@@ -6677,8 +7481,12 @@
       <c r="I195" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L195" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>10</v>
       </c>
@@ -6704,8 +7512,12 @@
       <c r="I196" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L196" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>10</v>
       </c>
@@ -6731,8 +7543,12 @@
       <c r="I197" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L197" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>10</v>
       </c>
@@ -6758,8 +7574,12 @@
       <c r="I198" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L198" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>10</v>
       </c>
@@ -6785,8 +7605,12 @@
       <c r="I199" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L199" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>10</v>
       </c>
@@ -6812,8 +7636,12 @@
       <c r="I200" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L200" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>10</v>
       </c>
@@ -6839,8 +7667,12 @@
       <c r="I201" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L201" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -6866,8 +7698,12 @@
       <c r="I202" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L202" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>10</v>
       </c>
@@ -6893,8 +7729,12 @@
       <c r="I203" s="2">
         <v>510</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L203" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>10</v>
       </c>
@@ -6920,8 +7760,15 @@
       <c r="I204" s="2">
         <v>354</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J204" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L204" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=3 where Entrega='20201010' and Vecine='vedia, florencia' and Producto='Ravioles de Pollo y Espinaca La Litoraleña - 500 gr' </v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>10</v>
       </c>
@@ -6947,8 +7794,12 @@
       <c r="I205" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L205" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>10</v>
       </c>
@@ -6974,8 +7825,12 @@
       <c r="I206" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L206" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>10</v>
       </c>
@@ -6988,18 +7843,22 @@
       <c r="D207" s="2">
         <v>1</v>
       </c>
-      <c r="E207" s="7" t="s">
+      <c r="E207" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F207" s="7"/>
-      <c r="G207" s="7"/>
-      <c r="H207" s="7"/>
-      <c r="I207" s="7"/>
-      <c r="J207" s="4">
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="7">
         <v>2656</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L207" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>10</v>
       </c>
@@ -7025,8 +7884,12 @@
       <c r="I208" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L208" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>10</v>
       </c>
@@ -7052,8 +7915,12 @@
       <c r="I209" s="2">
         <v>288</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L209" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>10</v>
       </c>
@@ -7079,8 +7946,12 @@
       <c r="I210" s="2">
         <v>288</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L210" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>10</v>
       </c>
@@ -7106,8 +7977,12 @@
       <c r="I211" s="2">
         <v>313</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L211" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>10</v>
       </c>
@@ -7133,8 +8008,12 @@
       <c r="I212" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L212" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>10</v>
       </c>
@@ -7160,8 +8039,12 @@
       <c r="I213" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L213" s="1" t="str">
+        <f t="shared" ref="L213:L276" si="4">IF(J213="","",IF(LEFT(J213,1)="-","update Pedido set CantidadFaltante=" &amp; -J213 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C213 &amp; "' and Producto='" &amp; G213 &amp; "' ",IF(J213="x","update Pedido set CantidadFaltante=" &amp; E213&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C213 &amp; "' and Producto='" &amp; G213 &amp; "' ","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
@@ -7187,8 +8070,12 @@
       <c r="I214" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L214" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>10</v>
       </c>
@@ -7214,8 +8101,12 @@
       <c r="I215" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L215" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>10</v>
       </c>
@@ -7241,8 +8132,12 @@
       <c r="I216" s="2">
         <v>205</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L216" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>10</v>
       </c>
@@ -7268,8 +8163,15 @@
       <c r="I217" s="2">
         <v>211</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J217" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L217" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Gamarnik, Diana' and Producto='Pate de Girgolas al Alioli, Kaiken. 90 grs' </v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>10</v>
       </c>
@@ -7295,8 +8197,12 @@
       <c r="I218" s="2">
         <v>295</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L218" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>10</v>
       </c>
@@ -7322,8 +8228,12 @@
       <c r="I219" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L219" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>10</v>
       </c>
@@ -7336,18 +8246,22 @@
       <c r="D220" s="2">
         <v>1</v>
       </c>
-      <c r="E220" s="7" t="s">
+      <c r="E220" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F220" s="7"/>
-      <c r="G220" s="7"/>
-      <c r="H220" s="7"/>
-      <c r="I220" s="7"/>
-      <c r="J220" s="4">
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="7">
         <v>3848</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L220" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>10</v>
       </c>
@@ -7373,8 +8287,12 @@
       <c r="I221" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L221" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>10</v>
       </c>
@@ -7400,8 +8318,12 @@
       <c r="I222" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L222" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>10</v>
       </c>
@@ -7427,8 +8349,12 @@
       <c r="I223" s="2">
         <v>520</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L223" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>10</v>
       </c>
@@ -7454,8 +8380,12 @@
       <c r="I224" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L224" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>10</v>
       </c>
@@ -7481,8 +8411,12 @@
       <c r="I225" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L225" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -7508,8 +8442,12 @@
       <c r="I226" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L226" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>10</v>
       </c>
@@ -7535,8 +8473,15 @@
       <c r="I227" s="2">
         <v>255</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J227" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L227" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Murillo, Ximena' and Producto='Oregano Premium, 250 grs. Condi-Ment' </v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>10</v>
       </c>
@@ -7562,8 +8507,12 @@
       <c r="I228" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L228" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>10</v>
       </c>
@@ -7589,8 +8538,12 @@
       <c r="I229" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L229" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>10</v>
       </c>
@@ -7616,8 +8569,12 @@
       <c r="I230" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L230" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>10</v>
       </c>
@@ -7643,8 +8600,12 @@
       <c r="I231" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L231" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>10</v>
       </c>
@@ -7670,8 +8631,12 @@
       <c r="I232" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L232" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>10</v>
       </c>
@@ -7697,8 +8662,12 @@
       <c r="I233" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L233" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>10</v>
       </c>
@@ -7724,8 +8693,12 @@
       <c r="I234" s="2">
         <v>550</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L234" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>10</v>
       </c>
@@ -7751,8 +8724,12 @@
       <c r="I235" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L235" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>170</v>
       </c>
@@ -7765,18 +8742,22 @@
       <c r="D236" s="2">
         <v>1</v>
       </c>
-      <c r="E236" s="7" t="s">
+      <c r="E236" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
-      <c r="I236" s="7"/>
-      <c r="J236" s="4">
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="7">
         <v>1101</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L236" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>170</v>
       </c>
@@ -7802,8 +8783,12 @@
       <c r="I237" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L237" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>170</v>
       </c>
@@ -7829,8 +8814,12 @@
       <c r="I238" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L238" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>170</v>
       </c>
@@ -7856,8 +8845,12 @@
       <c r="I239" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L239" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>170</v>
       </c>
@@ -7883,8 +8876,12 @@
       <c r="I240" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L240" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>170</v>
       </c>
@@ -7910,8 +8907,12 @@
       <c r="I241" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L241" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>170</v>
       </c>
@@ -7937,8 +8938,12 @@
       <c r="I242" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L242" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>170</v>
       </c>
@@ -7964,8 +8969,12 @@
       <c r="I243" s="2">
         <v>280</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L243" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>170</v>
       </c>
@@ -7978,18 +8987,22 @@
       <c r="D244" s="2">
         <v>1</v>
       </c>
-      <c r="E244" s="7" t="s">
+      <c r="E244" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7"/>
-      <c r="I244" s="7"/>
-      <c r="J244" s="4">
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="7">
         <v>1548</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L244" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>170</v>
       </c>
@@ -8015,8 +9028,15 @@
       <c r="I245" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J245" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L245" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Ariza, Mariela' and Producto='Bondiola, Torgelon. 100 grs.' </v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>170</v>
       </c>
@@ -8042,8 +9062,12 @@
       <c r="I246" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L246" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>170</v>
       </c>
@@ -8069,8 +9093,12 @@
       <c r="I247" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L247" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>170</v>
       </c>
@@ -8096,8 +9124,12 @@
       <c r="I248" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L248" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>170</v>
       </c>
@@ -8123,8 +9155,12 @@
       <c r="I249" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L249" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>170</v>
       </c>
@@ -8150,8 +9186,12 @@
       <c r="I250" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L250" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>170</v>
       </c>
@@ -8177,8 +9217,12 @@
       <c r="I251" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L251" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>170</v>
       </c>
@@ -8204,8 +9248,12 @@
       <c r="I252" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L252" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>170</v>
       </c>
@@ -8231,8 +9279,12 @@
       <c r="I253" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L253" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>170</v>
       </c>
@@ -8258,8 +9310,12 @@
       <c r="I254" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L254" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>170</v>
       </c>
@@ -8285,8 +9341,12 @@
       <c r="I255" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L255" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>170</v>
       </c>
@@ -8312,8 +9372,12 @@
       <c r="I256" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L256" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>170</v>
       </c>
@@ -8326,18 +9390,22 @@
       <c r="D257" s="2">
         <v>1</v>
       </c>
-      <c r="E257" s="7" t="s">
+      <c r="E257" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F257" s="7"/>
-      <c r="G257" s="7"/>
-      <c r="H257" s="7"/>
-      <c r="I257" s="7"/>
-      <c r="J257" s="4">
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="7">
         <v>975</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L257" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>170</v>
       </c>
@@ -8365,8 +9433,12 @@
       <c r="I258" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L258" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>170</v>
       </c>
@@ -8392,8 +9464,12 @@
       <c r="I259" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L259" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>170</v>
       </c>
@@ -8419,8 +9495,12 @@
       <c r="I260" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L260" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>170</v>
       </c>
@@ -8446,8 +9526,12 @@
       <c r="I261" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L261" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>170</v>
       </c>
@@ -8473,8 +9557,15 @@
       <c r="I262" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J262" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L262" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Barrellla, Soledad' and Producto='Limones Agroecologicos, bolsa 1 kg.' </v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>170</v>
       </c>
@@ -8502,8 +9593,12 @@
       <c r="I263" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L263" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>170</v>
       </c>
@@ -8531,8 +9626,12 @@
       <c r="I264" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L264" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>170</v>
       </c>
@@ -8545,18 +9644,22 @@
       <c r="D265" s="2">
         <v>1</v>
       </c>
-      <c r="E265" s="7" t="s">
+      <c r="E265" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F265" s="7"/>
-      <c r="G265" s="7"/>
-      <c r="H265" s="7"/>
-      <c r="I265" s="7"/>
-      <c r="J265" s="4">
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="7">
         <v>1604</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L265" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>170</v>
       </c>
@@ -8582,8 +9685,12 @@
       <c r="I266" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L266" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>170</v>
       </c>
@@ -8609,8 +9716,12 @@
       <c r="I267" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L267" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>170</v>
       </c>
@@ -8636,8 +9747,12 @@
       <c r="I268" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L268" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>170</v>
       </c>
@@ -8663,8 +9778,12 @@
       <c r="I269" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L269" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>170</v>
       </c>
@@ -8677,18 +9796,22 @@
       <c r="D270" s="2">
         <v>1</v>
       </c>
-      <c r="E270" s="7" t="s">
+      <c r="E270" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F270" s="7"/>
-      <c r="G270" s="7"/>
-      <c r="H270" s="7"/>
-      <c r="I270" s="7"/>
-      <c r="J270" s="4">
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="7">
         <v>482</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L270" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>170</v>
       </c>
@@ -8714,8 +9837,12 @@
       <c r="I271" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L271" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>170</v>
       </c>
@@ -8741,8 +9868,12 @@
       <c r="I272" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L272" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>170</v>
       </c>
@@ -8768,8 +9899,12 @@
       <c r="I273" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L273" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>170</v>
       </c>
@@ -8782,18 +9917,22 @@
       <c r="D274" s="2">
         <v>1</v>
       </c>
-      <c r="E274" s="7" t="s">
+      <c r="E274" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F274" s="7"/>
-      <c r="G274" s="7"/>
-      <c r="H274" s="7"/>
-      <c r="I274" s="7"/>
-      <c r="J274" s="4">
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="7">
         <v>1134</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L274" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>170</v>
       </c>
@@ -8819,8 +9958,12 @@
       <c r="I275" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L275" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>170</v>
       </c>
@@ -8846,8 +9989,12 @@
       <c r="I276" s="2">
         <v>1040</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L276" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>170</v>
       </c>
@@ -8860,18 +10007,22 @@
       <c r="D277" s="2">
         <v>1</v>
       </c>
-      <c r="E277" s="7" t="s">
+      <c r="E277" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F277" s="7"/>
-      <c r="G277" s="7"/>
-      <c r="H277" s="7"/>
-      <c r="I277" s="7"/>
-      <c r="J277" s="4">
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="7">
         <v>910</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L277" s="1" t="str">
+        <f t="shared" ref="L277:L340" si="5">IF(J277="","",IF(LEFT(J277,1)="-","update Pedido set CantidadFaltante=" &amp; -J277 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C277 &amp; "' and Producto='" &amp; G277 &amp; "' ",IF(J277="x","update Pedido set CantidadFaltante=" &amp; E277&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C277 &amp; "' and Producto='" &amp; G277 &amp; "' ","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>170</v>
       </c>
@@ -8897,8 +10048,12 @@
       <c r="I278" s="2">
         <v>910</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L278" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>170</v>
       </c>
@@ -8911,18 +10066,22 @@
       <c r="D279" s="2">
         <v>1</v>
       </c>
-      <c r="E279" s="7" t="s">
+      <c r="E279" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F279" s="7"/>
-      <c r="G279" s="7"/>
-      <c r="H279" s="7"/>
-      <c r="I279" s="7"/>
-      <c r="J279" s="4">
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="7">
         <v>351</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L279" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>170</v>
       </c>
@@ -8948,8 +10107,12 @@
       <c r="I280" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L280" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>170</v>
       </c>
@@ -8975,8 +10138,12 @@
       <c r="I281" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L281" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>170</v>
       </c>
@@ -9002,8 +10169,12 @@
       <c r="I282" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L282" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>170</v>
       </c>
@@ -9016,18 +10187,22 @@
       <c r="D283" s="2">
         <v>1</v>
       </c>
-      <c r="E283" s="7" t="s">
+      <c r="E283" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F283" s="7"/>
-      <c r="G283" s="7"/>
-      <c r="H283" s="7"/>
-      <c r="I283" s="7"/>
-      <c r="J283" s="4">
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="7">
         <v>1305</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L283" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>170</v>
       </c>
@@ -9053,8 +10228,12 @@
       <c r="I284" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L284" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>170</v>
       </c>
@@ -9080,8 +10259,12 @@
       <c r="I285" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L285" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>170</v>
       </c>
@@ -9107,8 +10290,12 @@
       <c r="I286" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L286" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>170</v>
       </c>
@@ -9134,8 +10321,12 @@
       <c r="I287" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L287" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>170</v>
       </c>
@@ -9161,8 +10352,12 @@
       <c r="I288" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L288" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>170</v>
       </c>
@@ -9175,18 +10370,22 @@
       <c r="D289" s="2">
         <v>1</v>
       </c>
-      <c r="E289" s="7" t="s">
+      <c r="E289" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F289" s="7"/>
-      <c r="G289" s="7"/>
-      <c r="H289" s="7"/>
-      <c r="I289" s="7"/>
-      <c r="J289" s="4">
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="7">
         <v>1781</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L289" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>170</v>
       </c>
@@ -9212,8 +10411,12 @@
       <c r="I290" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L290" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>170</v>
       </c>
@@ -9239,8 +10442,12 @@
       <c r="I291" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L291" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>170</v>
       </c>
@@ -9266,8 +10473,12 @@
       <c r="I292" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L292" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>170</v>
       </c>
@@ -9293,8 +10504,12 @@
       <c r="I293" s="2">
         <v>650</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L293" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>170</v>
       </c>
@@ -9320,8 +10535,12 @@
       <c r="I294" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L294" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>170</v>
       </c>
@@ -9347,8 +10566,12 @@
       <c r="I295" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L295" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>170</v>
       </c>
@@ -9374,8 +10597,12 @@
       <c r="I296" s="2">
         <v>195</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L296" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>170</v>
       </c>
@@ -9388,18 +10615,22 @@
       <c r="D297" s="2">
         <v>1</v>
       </c>
-      <c r="E297" s="7" t="s">
+      <c r="E297" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F297" s="7"/>
-      <c r="G297" s="7"/>
-      <c r="H297" s="7"/>
-      <c r="I297" s="7"/>
-      <c r="J297" s="4">
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="7">
         <v>5390</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L297" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>170</v>
       </c>
@@ -9425,8 +10656,15 @@
       <c r="I298" s="2">
         <v>530</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J298" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L298" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Gil, Paula' and Producto='Aceite de girasol, El Cortijo. 900 cc.' </v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>170</v>
       </c>
@@ -9452,8 +10690,12 @@
       <c r="I299" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L299" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>170</v>
       </c>
@@ -9479,8 +10721,12 @@
       <c r="I300" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L300" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>170</v>
       </c>
@@ -9506,8 +10752,15 @@
       <c r="I301" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J301" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L301" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Gil, Paula' and Producto='Bolson de Verdura Libre de Agrotoxicos - 5 kilos (aprox.)' </v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>170</v>
       </c>
@@ -9533,8 +10786,12 @@
       <c r="I302" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L302" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>170</v>
       </c>
@@ -9560,8 +10817,12 @@
       <c r="I303" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L303" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>170</v>
       </c>
@@ -9587,8 +10848,12 @@
       <c r="I304" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L304" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>170</v>
       </c>
@@ -9614,8 +10879,12 @@
       <c r="I305" s="2">
         <v>256</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L305" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>170</v>
       </c>
@@ -9641,8 +10910,12 @@
       <c r="I306" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L306" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>170</v>
       </c>
@@ -9668,8 +10941,12 @@
       <c r="I307" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L307" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>170</v>
       </c>
@@ -9695,8 +10972,12 @@
       <c r="I308" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L308" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>170</v>
       </c>
@@ -9722,8 +11003,12 @@
       <c r="I309" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L309" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>170</v>
       </c>
@@ -9749,8 +11034,12 @@
       <c r="I310" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L310" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>170</v>
       </c>
@@ -9776,8 +11065,12 @@
       <c r="I311" s="2">
         <v>313</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L311" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>170</v>
       </c>
@@ -9803,8 +11096,12 @@
       <c r="I312" s="2">
         <v>148</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L312" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>170</v>
       </c>
@@ -9830,8 +11127,12 @@
       <c r="I313" s="2">
         <v>580</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L313" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>170</v>
       </c>
@@ -9857,8 +11158,15 @@
       <c r="I314" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J314" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L314" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Gil, Paula' and Producto='Lomo Natural, Torgelon. 150 grs.' </v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>170</v>
       </c>
@@ -9884,8 +11192,12 @@
       <c r="I315" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L315" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>170</v>
       </c>
@@ -9911,8 +11223,12 @@
       <c r="I316" s="2">
         <v>690</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L316" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>170</v>
       </c>
@@ -9938,8 +11254,12 @@
       <c r="I317" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L317" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>170</v>
       </c>
@@ -9965,8 +11285,12 @@
       <c r="I318" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L318" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>170</v>
       </c>
@@ -9992,8 +11316,12 @@
       <c r="I319" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L319" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>170</v>
       </c>
@@ -10019,8 +11347,12 @@
       <c r="I320" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L320" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>170</v>
       </c>
@@ -10046,8 +11378,12 @@
       <c r="I321" s="2">
         <v>179</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L321" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>170</v>
       </c>
@@ -10060,18 +11396,22 @@
       <c r="D322" s="2">
         <v>1</v>
       </c>
-      <c r="E322" s="7" t="s">
+      <c r="E322" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F322" s="7"/>
-      <c r="G322" s="7"/>
-      <c r="H322" s="7"/>
-      <c r="I322" s="7"/>
-      <c r="J322" s="4">
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="7">
         <v>1513</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L322" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>170</v>
       </c>
@@ -10097,8 +11437,12 @@
       <c r="I323" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L323" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>170</v>
       </c>
@@ -10124,8 +11468,12 @@
       <c r="I324" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L324" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>170</v>
       </c>
@@ -10151,8 +11499,12 @@
       <c r="I325" s="2">
         <v>605</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L325" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>170</v>
       </c>
@@ -10178,8 +11530,12 @@
       <c r="I326" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L326" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>170</v>
       </c>
@@ -10205,8 +11561,15 @@
       <c r="I327" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J327" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L327" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Goldberg, Carola' and Producto='Provoletas, El Universo Alimentos. 2 unidades, 300 grs aprox' </v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>170</v>
       </c>
@@ -10219,18 +11582,22 @@
       <c r="D328" s="2">
         <v>1</v>
       </c>
-      <c r="E328" s="7" t="s">
+      <c r="E328" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F328" s="7"/>
-      <c r="G328" s="7"/>
-      <c r="H328" s="7"/>
-      <c r="I328" s="7"/>
-      <c r="J328" s="4">
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="5"/>
+      <c r="J328" s="7">
         <v>12339</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L328" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>170</v>
       </c>
@@ -10256,8 +11623,12 @@
       <c r="I329" s="2">
         <v>212</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L329" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>170</v>
       </c>
@@ -10283,8 +11654,12 @@
       <c r="I330" s="2">
         <v>520</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L330" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>170</v>
       </c>
@@ -10310,8 +11685,12 @@
       <c r="I331" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L331" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>170</v>
       </c>
@@ -10337,8 +11716,12 @@
       <c r="I332" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L332" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>170</v>
       </c>
@@ -10364,8 +11747,12 @@
       <c r="I333" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L333" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>170</v>
       </c>
@@ -10391,8 +11778,12 @@
       <c r="I334" s="2">
         <v>225</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L334" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>170</v>
       </c>
@@ -10418,8 +11809,12 @@
       <c r="I335" s="2">
         <v>800</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L335" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>170</v>
       </c>
@@ -10445,8 +11840,12 @@
       <c r="I336" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L336" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>170</v>
       </c>
@@ -10472,8 +11871,12 @@
       <c r="I337" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L337" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>170</v>
       </c>
@@ -10499,8 +11902,12 @@
       <c r="I338" s="2">
         <v>720</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L338" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>170</v>
       </c>
@@ -10526,8 +11933,12 @@
       <c r="I339" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L339" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>170</v>
       </c>
@@ -10553,8 +11964,15 @@
       <c r="I340" s="2">
         <v>366</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J340" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L340" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=2 where Entrega='20201010' and Vecine='Gonzalez, Ramiro' and Producto='Dulce de Batata Blason - Cajon de 1 kg' </v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>170</v>
       </c>
@@ -10580,8 +11998,12 @@
       <c r="I341" s="2">
         <v>425</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L341" s="1" t="str">
+        <f t="shared" ref="L341:L404" si="6">IF(J341="","",IF(LEFT(J341,1)="-","update Pedido set CantidadFaltante=" &amp; -J341 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C341 &amp; "' and Producto='" &amp; G341 &amp; "' ",IF(J341="x","update Pedido set CantidadFaltante=" &amp; E341&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C341 &amp; "' and Producto='" &amp; G341 &amp; "' ","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>170</v>
       </c>
@@ -10607,8 +12029,12 @@
       <c r="I342" s="2">
         <v>210</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L342" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>170</v>
       </c>
@@ -10634,8 +12060,12 @@
       <c r="I343" s="2">
         <v>580</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L343" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>170</v>
       </c>
@@ -10661,8 +12091,12 @@
       <c r="I344" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L344" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>170</v>
       </c>
@@ -10688,8 +12122,12 @@
       <c r="I345" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L345" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>170</v>
       </c>
@@ -10715,8 +12153,12 @@
       <c r="I346" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L346" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>170</v>
       </c>
@@ -10742,8 +12184,12 @@
       <c r="I347" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L347" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>170</v>
       </c>
@@ -10769,8 +12215,12 @@
       <c r="I348" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L348" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>170</v>
       </c>
@@ -10796,8 +12246,12 @@
       <c r="I349" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L349" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>170</v>
       </c>
@@ -10823,8 +12277,12 @@
       <c r="I350" s="2">
         <v>460</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L350" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>170</v>
       </c>
@@ -10850,8 +12308,12 @@
       <c r="I351" s="2">
         <v>2520</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L351" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>170</v>
       </c>
@@ -10877,8 +12339,12 @@
       <c r="I352" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L352" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>170</v>
       </c>
@@ -10904,8 +12370,12 @@
       <c r="I353" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L353" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>170</v>
       </c>
@@ -10931,8 +12401,12 @@
       <c r="I354" s="2">
         <v>368</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L354" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>170</v>
       </c>
@@ -10958,8 +12432,15 @@
       <c r="I355" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J355" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L355" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Gonzalez, Ramiro' and Producto='Provoletas, El Universo Alimentos. 2 unidades, 300 grs aprox' </v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>170</v>
       </c>
@@ -10985,8 +12466,12 @@
       <c r="I356" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L356" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>170</v>
       </c>
@@ -11012,8 +12497,12 @@
       <c r="I357" s="2">
         <v>1680</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L357" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>170</v>
       </c>
@@ -11039,8 +12528,12 @@
       <c r="I358" s="2">
         <v>255</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L358" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>170</v>
       </c>
@@ -11053,18 +12546,22 @@
       <c r="D359" s="2">
         <v>1</v>
       </c>
-      <c r="E359" s="7" t="s">
+      <c r="E359" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F359" s="7"/>
-      <c r="G359" s="7"/>
-      <c r="H359" s="7"/>
-      <c r="I359" s="7"/>
-      <c r="J359" s="4">
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="7">
         <v>1589</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L359" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>170</v>
       </c>
@@ -11090,8 +12587,12 @@
       <c r="I360" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L360" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>170</v>
       </c>
@@ -11117,8 +12618,12 @@
       <c r="I361" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L361" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>170</v>
       </c>
@@ -11144,8 +12649,12 @@
       <c r="I362" s="2">
         <v>580</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L362" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>170</v>
       </c>
@@ -11171,8 +12680,12 @@
       <c r="I363" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L363" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>170</v>
       </c>
@@ -11198,8 +12711,15 @@
       <c r="I364" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J364" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L364" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Guelman, Anahi' and Producto='Ñoquis La Litoraleña - 500 gr' </v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>170</v>
       </c>
@@ -11225,8 +12745,12 @@
       <c r="I365" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L365" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>170</v>
       </c>
@@ -11252,8 +12776,15 @@
       <c r="I366" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J366" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L366" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Guelman, Anahi' and Producto='Sorrentinos Ricota, Muzzarella y Jamon La Litoraleña 500 grs.' </v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>170</v>
       </c>
@@ -11266,18 +12797,22 @@
       <c r="D367" s="2">
         <v>1</v>
       </c>
-      <c r="E367" s="7" t="s">
+      <c r="E367" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F367" s="7"/>
-      <c r="G367" s="7"/>
-      <c r="H367" s="7"/>
-      <c r="I367" s="7"/>
-      <c r="J367" s="4">
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="5"/>
+      <c r="J367" s="7">
         <v>1779</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L367" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>170</v>
       </c>
@@ -11303,8 +12838,12 @@
       <c r="I368" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="369" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L368" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>170</v>
       </c>
@@ -11330,8 +12869,12 @@
       <c r="I369" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="370" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L369" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>170</v>
       </c>
@@ -11357,8 +12900,12 @@
       <c r="I370" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L370" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>170</v>
       </c>
@@ -11384,8 +12931,12 @@
       <c r="I371" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="372" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L371" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>170</v>
       </c>
@@ -11411,8 +12962,12 @@
       <c r="I372" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L372" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>170</v>
       </c>
@@ -11438,8 +12993,12 @@
       <c r="I373" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="374" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L373" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>170</v>
       </c>
@@ -11465,8 +13024,12 @@
       <c r="I374" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="375" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L374" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>170</v>
       </c>
@@ -11492,8 +13055,12 @@
       <c r="I375" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L375" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>170</v>
       </c>
@@ -11519,8 +13086,12 @@
       <c r="I376" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L376" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>170</v>
       </c>
@@ -11546,8 +13117,12 @@
       <c r="I377" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="378" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L377" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>170</v>
       </c>
@@ -11573,8 +13148,12 @@
       <c r="I378" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L378" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>170</v>
       </c>
@@ -11600,8 +13179,12 @@
       <c r="I379" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="380" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L379" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>170</v>
       </c>
@@ -11627,8 +13210,12 @@
       <c r="I380" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L380" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>170</v>
       </c>
@@ -11654,8 +13241,12 @@
       <c r="I381" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L381" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>170</v>
       </c>
@@ -11681,8 +13272,12 @@
       <c r="I382" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="383" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L382" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>170</v>
       </c>
@@ -11708,8 +13303,12 @@
       <c r="I383" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="384" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L383" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>170</v>
       </c>
@@ -11722,18 +13321,22 @@
       <c r="D384" s="2">
         <v>1</v>
       </c>
-      <c r="E384" s="7" t="s">
+      <c r="E384" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F384" s="7"/>
-      <c r="G384" s="7"/>
-      <c r="H384" s="7"/>
-      <c r="I384" s="7"/>
-      <c r="J384" s="4">
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
+      <c r="I384" s="5"/>
+      <c r="J384" s="7">
         <v>2415</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L384" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>170</v>
       </c>
@@ -11759,8 +13362,12 @@
       <c r="I385" s="2">
         <v>975</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L385" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>170</v>
       </c>
@@ -11786,8 +13393,12 @@
       <c r="I386" s="2">
         <v>1040</v>
       </c>
-    </row>
-    <row r="387" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L386" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>170</v>
       </c>
@@ -11813,8 +13424,12 @@
       <c r="I387" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="388" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L387" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>170</v>
       </c>
@@ -11827,18 +13442,22 @@
       <c r="D388" s="2">
         <v>1</v>
       </c>
-      <c r="E388" s="7" t="s">
+      <c r="E388" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F388" s="7"/>
-      <c r="G388" s="7"/>
-      <c r="H388" s="7"/>
-      <c r="I388" s="7"/>
-      <c r="J388" s="4">
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="5"/>
+      <c r="J388" s="7">
         <v>1509</v>
       </c>
-    </row>
-    <row r="389" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L388" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>170</v>
       </c>
@@ -11864,8 +13483,12 @@
       <c r="I389" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="390" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L389" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>170</v>
       </c>
@@ -11891,8 +13514,12 @@
       <c r="I390" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="391" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L390" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>170</v>
       </c>
@@ -11918,8 +13545,12 @@
       <c r="I391" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L391" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>170</v>
       </c>
@@ -11945,8 +13576,12 @@
       <c r="I392" s="2">
         <v>650</v>
       </c>
-    </row>
-    <row r="393" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L392" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>170</v>
       </c>
@@ -11972,8 +13607,12 @@
       <c r="I393" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="394" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L393" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>170</v>
       </c>
@@ -11986,18 +13625,22 @@
       <c r="D394" s="2">
         <v>1</v>
       </c>
-      <c r="E394" s="7" t="s">
+      <c r="E394" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F394" s="7"/>
-      <c r="G394" s="7"/>
-      <c r="H394" s="7"/>
-      <c r="I394" s="7"/>
-      <c r="J394" s="4">
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="7">
         <v>1067</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L394" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>170</v>
       </c>
@@ -12023,8 +13666,12 @@
       <c r="I395" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L395" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>170</v>
       </c>
@@ -12050,8 +13697,12 @@
       <c r="I396" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="397" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L396" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>170</v>
       </c>
@@ -12077,8 +13728,12 @@
       <c r="I397" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="398" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L397" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>170</v>
       </c>
@@ -12104,8 +13759,12 @@
       <c r="I398" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="399" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L398" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>170</v>
       </c>
@@ -12118,18 +13777,22 @@
       <c r="D399" s="2">
         <v>1</v>
       </c>
-      <c r="E399" s="7" t="s">
+      <c r="E399" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F399" s="7"/>
-      <c r="G399" s="7"/>
-      <c r="H399" s="7"/>
-      <c r="I399" s="7"/>
-      <c r="J399" s="4">
+      <c r="F399" s="5"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
+      <c r="I399" s="5"/>
+      <c r="J399" s="7">
         <v>3291</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L399" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>170</v>
       </c>
@@ -12155,8 +13818,12 @@
       <c r="I400" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="401" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L400" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>170</v>
       </c>
@@ -12182,8 +13849,12 @@
       <c r="I401" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="402" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L401" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>170</v>
       </c>
@@ -12209,8 +13880,12 @@
       <c r="I402" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="403" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L402" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>170</v>
       </c>
@@ -12236,8 +13911,12 @@
       <c r="I403" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="404" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L403" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>170</v>
       </c>
@@ -12263,8 +13942,12 @@
       <c r="I404" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="405" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L404" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>170</v>
       </c>
@@ -12290,8 +13973,12 @@
       <c r="I405" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="406" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L405" s="1" t="str">
+        <f t="shared" ref="L405:L468" si="7">IF(J405="","",IF(LEFT(J405,1)="-","update Pedido set CantidadFaltante=" &amp; -J405 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C405 &amp; "' and Producto='" &amp; G405 &amp; "' ",IF(J405="x","update Pedido set CantidadFaltante=" &amp; E405&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C405 &amp; "' and Producto='" &amp; G405 &amp; "' ","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>170</v>
       </c>
@@ -12317,8 +14004,12 @@
       <c r="I406" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="407" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L406" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>170</v>
       </c>
@@ -12344,8 +14035,12 @@
       <c r="I407" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="408" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L407" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>170</v>
       </c>
@@ -12371,8 +14066,12 @@
       <c r="I408" s="2">
         <v>210</v>
       </c>
-    </row>
-    <row r="409" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L408" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>170</v>
       </c>
@@ -12398,8 +14097,12 @@
       <c r="I409" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="410" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L409" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>170</v>
       </c>
@@ -12425,8 +14128,12 @@
       <c r="I410" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="411" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L410" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>170</v>
       </c>
@@ -12452,8 +14159,12 @@
       <c r="I411" s="2">
         <v>455</v>
       </c>
-    </row>
-    <row r="412" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L411" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>170</v>
       </c>
@@ -12479,8 +14190,12 @@
       <c r="I412" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="413" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L412" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>170</v>
       </c>
@@ -12493,18 +14208,22 @@
       <c r="D413" s="2">
         <v>1</v>
       </c>
-      <c r="E413" s="7" t="s">
+      <c r="E413" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F413" s="7"/>
-      <c r="G413" s="7"/>
-      <c r="H413" s="7"/>
-      <c r="I413" s="7"/>
-      <c r="J413" s="4">
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="5"/>
+      <c r="J413" s="7">
         <v>3362</v>
       </c>
-    </row>
-    <row r="414" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L413" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>170</v>
       </c>
@@ -12530,8 +14249,12 @@
       <c r="I414" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="415" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L414" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>170</v>
       </c>
@@ -12557,8 +14280,12 @@
       <c r="I415" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="416" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L415" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>170</v>
       </c>
@@ -12584,8 +14311,12 @@
       <c r="I416" s="2">
         <v>225</v>
       </c>
-    </row>
-    <row r="417" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L416" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>170</v>
       </c>
@@ -12611,8 +14342,12 @@
       <c r="I417" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="418" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L417" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>170</v>
       </c>
@@ -12638,8 +14373,12 @@
       <c r="I418" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="419" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L418" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>170</v>
       </c>
@@ -12665,8 +14404,12 @@
       <c r="I419" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="420" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L419" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>170</v>
       </c>
@@ -12692,8 +14435,12 @@
       <c r="I420" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="421" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L420" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>170</v>
       </c>
@@ -12719,8 +14466,12 @@
       <c r="I421" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="422" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L421" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>170</v>
       </c>
@@ -12746,8 +14497,12 @@
       <c r="I422" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="423" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L422" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>170</v>
       </c>
@@ -12773,8 +14528,12 @@
       <c r="I423" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="424" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L423" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>170</v>
       </c>
@@ -12800,8 +14559,12 @@
       <c r="I424" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="425" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L424" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>170</v>
       </c>
@@ -12827,8 +14590,12 @@
       <c r="I425" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="426" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L425" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>170</v>
       </c>
@@ -12854,8 +14621,12 @@
       <c r="I426" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="427" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L426" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>170</v>
       </c>
@@ -12881,8 +14652,12 @@
       <c r="I427" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="428" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L427" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>170</v>
       </c>
@@ -12908,8 +14683,12 @@
       <c r="I428" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="429" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L428" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>170</v>
       </c>
@@ -12935,8 +14714,12 @@
       <c r="I429" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="430" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L429" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>170</v>
       </c>
@@ -12962,8 +14745,12 @@
       <c r="I430" s="2">
         <v>370</v>
       </c>
-    </row>
-    <row r="431" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L430" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>170</v>
       </c>
@@ -12989,8 +14776,12 @@
       <c r="I431" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="432" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L431" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>170</v>
       </c>
@@ -13003,18 +14794,22 @@
       <c r="D432" s="2">
         <v>1</v>
       </c>
-      <c r="E432" s="7" t="s">
+      <c r="E432" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F432" s="7"/>
-      <c r="G432" s="7"/>
-      <c r="H432" s="7"/>
-      <c r="I432" s="7"/>
-      <c r="J432" s="4">
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
+      <c r="I432" s="5"/>
+      <c r="J432" s="7">
         <v>775</v>
       </c>
-    </row>
-    <row r="433" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L432" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>170</v>
       </c>
@@ -13040,8 +14835,12 @@
       <c r="I433" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="434" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L433" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>170</v>
       </c>
@@ -13067,8 +14866,12 @@
       <c r="I434" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="435" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L434" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>170</v>
       </c>
@@ -13081,18 +14884,22 @@
       <c r="D435" s="2">
         <v>1</v>
       </c>
-      <c r="E435" s="7" t="s">
+      <c r="E435" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F435" s="7"/>
-      <c r="G435" s="7"/>
-      <c r="H435" s="7"/>
-      <c r="I435" s="7"/>
-      <c r="J435" s="4">
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
+      <c r="H435" s="5"/>
+      <c r="I435" s="5"/>
+      <c r="J435" s="7">
         <v>382</v>
       </c>
-    </row>
-    <row r="436" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L435" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>170</v>
       </c>
@@ -13118,8 +14925,12 @@
       <c r="I436" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="437" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L436" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>170</v>
       </c>
@@ -13145,8 +14956,12 @@
       <c r="I437" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="438" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L437" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>170</v>
       </c>
@@ -13159,18 +14974,22 @@
       <c r="D438" s="2">
         <v>1</v>
       </c>
-      <c r="E438" s="7" t="s">
+      <c r="E438" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F438" s="7"/>
-      <c r="G438" s="7"/>
-      <c r="H438" s="7"/>
-      <c r="I438" s="7"/>
-      <c r="J438" s="4">
+      <c r="F438" s="5"/>
+      <c r="G438" s="5"/>
+      <c r="H438" s="5"/>
+      <c r="I438" s="5"/>
+      <c r="J438" s="7">
         <v>629</v>
       </c>
-    </row>
-    <row r="439" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L438" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>170</v>
       </c>
@@ -13196,8 +15015,12 @@
       <c r="I439" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="440" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L439" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>170</v>
       </c>
@@ -13223,8 +15046,12 @@
       <c r="I440" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="441" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L440" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>170</v>
       </c>
@@ -13250,8 +15077,12 @@
       <c r="I441" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="442" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L441" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>170</v>
       </c>
@@ -13277,8 +15108,12 @@
       <c r="I442" s="2">
         <v>210</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L442" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>170</v>
       </c>
@@ -13304,8 +15139,12 @@
       <c r="I443" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="444" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L443" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>170</v>
       </c>
@@ -13318,18 +15157,22 @@
       <c r="D444" s="2">
         <v>1</v>
       </c>
-      <c r="E444" s="7" t="s">
+      <c r="E444" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F444" s="7"/>
-      <c r="G444" s="7"/>
-      <c r="H444" s="7"/>
-      <c r="I444" s="7"/>
-      <c r="J444" s="4">
+      <c r="F444" s="5"/>
+      <c r="G444" s="5"/>
+      <c r="H444" s="5"/>
+      <c r="I444" s="5"/>
+      <c r="J444" s="7">
         <v>255</v>
       </c>
-    </row>
-    <row r="445" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L444" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>170</v>
       </c>
@@ -13355,8 +15198,12 @@
       <c r="I445" s="2">
         <v>255</v>
       </c>
-    </row>
-    <row r="446" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L445" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>170</v>
       </c>
@@ -13369,18 +15216,22 @@
       <c r="D446" s="2">
         <v>1</v>
       </c>
-      <c r="E446" s="7" t="s">
+      <c r="E446" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F446" s="7"/>
-      <c r="G446" s="7"/>
-      <c r="H446" s="7"/>
-      <c r="I446" s="7"/>
-      <c r="J446" s="4">
+      <c r="F446" s="5"/>
+      <c r="G446" s="5"/>
+      <c r="H446" s="5"/>
+      <c r="I446" s="5"/>
+      <c r="J446" s="7">
         <v>1796</v>
       </c>
-    </row>
-    <row r="447" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L446" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>170</v>
       </c>
@@ -13406,8 +15257,12 @@
       <c r="I447" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="448" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L447" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>170</v>
       </c>
@@ -13433,8 +15288,12 @@
       <c r="I448" s="2">
         <v>370</v>
       </c>
-    </row>
-    <row r="449" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L448" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>170</v>
       </c>
@@ -13460,8 +15319,12 @@
       <c r="I449" s="2">
         <v>288</v>
       </c>
-    </row>
-    <row r="450" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L449" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>170</v>
       </c>
@@ -13487,8 +15350,15 @@
       <c r="I450" s="2">
         <v>313</v>
       </c>
-    </row>
-    <row r="451" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J450" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L450" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Otero, Fernanda' and Producto='Girgolas en Escabeche, Kaiken. 220 grs' </v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>170</v>
       </c>
@@ -13514,8 +15384,12 @@
       <c r="I451" s="2">
         <v>295</v>
       </c>
-    </row>
-    <row r="452" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L451" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
         <v>170</v>
       </c>
@@ -13541,8 +15415,15 @@
       <c r="I452" s="2">
         <v>295</v>
       </c>
-    </row>
-    <row r="453" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J452" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L452" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Otero, Fernanda' and Producto='Portobellos en Escabeche, Kaiken. 220 grs' </v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>170</v>
       </c>
@@ -13555,18 +15436,22 @@
       <c r="D453" s="2">
         <v>1</v>
       </c>
-      <c r="E453" s="7" t="s">
+      <c r="E453" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F453" s="7"/>
-      <c r="G453" s="7"/>
-      <c r="H453" s="7"/>
-      <c r="I453" s="7"/>
-      <c r="J453" s="4">
+      <c r="F453" s="5"/>
+      <c r="G453" s="5"/>
+      <c r="H453" s="5"/>
+      <c r="I453" s="5"/>
+      <c r="J453" s="7">
         <v>4447</v>
       </c>
-    </row>
-    <row r="454" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L453" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
         <v>170</v>
       </c>
@@ -13592,8 +15477,15 @@
       <c r="I454" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="455" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J454" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L454" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Pansera, Aime' and Producto='Alfajor Algarroba cubierto c/choco y relleno de membrillo, Karu' </v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
         <v>170</v>
       </c>
@@ -13619,8 +15511,12 @@
       <c r="I455" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="456" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L455" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
         <v>170</v>
       </c>
@@ -13646,8 +15542,12 @@
       <c r="I456" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="457" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L456" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
         <v>170</v>
       </c>
@@ -13673,8 +15573,12 @@
       <c r="I457" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="458" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L457" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
         <v>170</v>
       </c>
@@ -13700,8 +15604,12 @@
       <c r="I458" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="459" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L458" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>170</v>
       </c>
@@ -13727,8 +15635,12 @@
       <c r="I459" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="460" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L459" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>170</v>
       </c>
@@ -13754,8 +15666,12 @@
       <c r="I460" s="2">
         <v>495</v>
       </c>
-    </row>
-    <row r="461" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L460" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>170</v>
       </c>
@@ -13781,8 +15697,12 @@
       <c r="I461" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="462" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L461" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
         <v>170</v>
       </c>
@@ -13808,8 +15728,12 @@
       <c r="I462" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="463" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L462" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>170</v>
       </c>
@@ -13835,8 +15759,12 @@
       <c r="I463" s="2">
         <v>330</v>
       </c>
-    </row>
-    <row r="464" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L463" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
         <v>170</v>
       </c>
@@ -13862,8 +15790,12 @@
       <c r="I464" s="2">
         <v>220</v>
       </c>
-    </row>
-    <row r="465" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L464" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>170</v>
       </c>
@@ -13889,8 +15821,12 @@
       <c r="I465" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="466" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L465" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>170</v>
       </c>
@@ -13916,8 +15852,12 @@
       <c r="I466" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="467" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L466" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>170</v>
       </c>
@@ -13943,8 +15883,12 @@
       <c r="I467" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="468" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L467" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
         <v>170</v>
       </c>
@@ -13970,8 +15914,12 @@
       <c r="I468" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="469" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L468" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
         <v>170</v>
       </c>
@@ -13997,8 +15945,15 @@
       <c r="I469" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="470" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J469" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L469" s="1" t="str">
+        <f t="shared" ref="L469:L532" ca="1" si="8">IF(J469="","",IF(LEFT(J469,1)="-","update Pedido set CantidadFaltante=" &amp; -J469 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C469 &amp; "' and Producto='" &amp; G469 &amp; "' ",IF(J469="x","update Pedido set CantidadFaltante=" &amp; E469&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C469 &amp; "' and Producto='" &amp; G469 &amp; "' ","")))</f>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Pansera, Aime' and Producto='Papel Higienico, Distribuidora Total. 4 Unidades por 80 mts' </v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
         <v>170</v>
       </c>
@@ -14024,8 +15979,12 @@
       <c r="I470" s="2">
         <v>385</v>
       </c>
-    </row>
-    <row r="471" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L470" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
         <v>170</v>
       </c>
@@ -14051,8 +16010,12 @@
       <c r="I471" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="472" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L471" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
         <v>170</v>
       </c>
@@ -14078,8 +16041,12 @@
       <c r="I472" s="2">
         <v>179</v>
       </c>
-    </row>
-    <row r="473" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L472" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>170</v>
       </c>
@@ -14092,18 +16059,22 @@
       <c r="D473" s="2">
         <v>1</v>
       </c>
-      <c r="E473" s="7" t="s">
+      <c r="E473" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F473" s="7"/>
-      <c r="G473" s="7"/>
-      <c r="H473" s="7"/>
-      <c r="I473" s="7"/>
-      <c r="J473" s="4">
+      <c r="F473" s="5"/>
+      <c r="G473" s="5"/>
+      <c r="H473" s="5"/>
+      <c r="I473" s="5"/>
+      <c r="J473" s="7">
         <v>450</v>
       </c>
-    </row>
-    <row r="474" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L473" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>170</v>
       </c>
@@ -14129,8 +16100,12 @@
       <c r="I474" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="475" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L474" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>170</v>
       </c>
@@ -14143,18 +16118,22 @@
       <c r="D475" s="2">
         <v>1</v>
       </c>
-      <c r="E475" s="7" t="s">
+      <c r="E475" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F475" s="7"/>
-      <c r="G475" s="7"/>
-      <c r="H475" s="7"/>
-      <c r="I475" s="7"/>
-      <c r="J475" s="4">
+      <c r="F475" s="5"/>
+      <c r="G475" s="5"/>
+      <c r="H475" s="5"/>
+      <c r="I475" s="5"/>
+      <c r="J475" s="7">
         <v>701</v>
       </c>
-    </row>
-    <row r="476" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L475" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>170</v>
       </c>
@@ -14180,8 +16159,15 @@
       <c r="I476" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="477" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J476" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L476" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Pinasco, Stella Maris' and Producto='Aceite de Oliva, Olivares Riojanos. 750 cc' </v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>170</v>
       </c>
@@ -14207,8 +16193,12 @@
       <c r="I477" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="478" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L477" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
         <v>170</v>
       </c>
@@ -14234,8 +16224,12 @@
       <c r="I478" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="479" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L478" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
         <v>170</v>
       </c>
@@ -14261,8 +16255,12 @@
       <c r="I479" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="480" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L479" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
         <v>170</v>
       </c>
@@ -14288,8 +16286,15 @@
       <c r="I480" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="481" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J480" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L480" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Pinasco, Stella Maris' and Producto='Salamin Picado Grueso, Torgelon 200 grs. aprox.' </v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>170</v>
       </c>
@@ -14302,18 +16307,22 @@
       <c r="D481" s="2">
         <v>1</v>
       </c>
-      <c r="E481" s="7" t="s">
+      <c r="E481" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F481" s="7"/>
-      <c r="G481" s="7"/>
-      <c r="H481" s="7"/>
-      <c r="I481" s="7"/>
-      <c r="J481" s="4">
+      <c r="F481" s="5"/>
+      <c r="G481" s="5"/>
+      <c r="H481" s="5"/>
+      <c r="I481" s="5"/>
+      <c r="J481" s="7">
         <v>1102</v>
       </c>
-    </row>
-    <row r="482" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L481" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
         <v>170</v>
       </c>
@@ -14339,8 +16348,12 @@
       <c r="I482" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="483" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L482" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
         <v>170</v>
       </c>
@@ -14366,8 +16379,12 @@
       <c r="I483" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="484" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L483" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>170</v>
       </c>
@@ -14393,8 +16410,12 @@
       <c r="I484" s="2">
         <v>201</v>
       </c>
-    </row>
-    <row r="485" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L484" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
         <v>170</v>
       </c>
@@ -14420,8 +16441,15 @@
       <c r="I485" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="486" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J485" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L485" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Quiroga, Estela' and Producto='Huevos de granja - Maple 30 huevos' </v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>170</v>
       </c>
@@ -14447,8 +16475,12 @@
       <c r="I486" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="487" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L486" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
         <v>170</v>
       </c>
@@ -14474,8 +16506,15 @@
       <c r="I487" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="488" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J487" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L487" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Quiroga, Estela' and Producto='Limones Agroecologicos, bolsa 1 kg.' </v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>170</v>
       </c>
@@ -14488,18 +16527,22 @@
       <c r="D488" s="2">
         <v>1</v>
       </c>
-      <c r="E488" s="7" t="s">
+      <c r="E488" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F488" s="7"/>
-      <c r="G488" s="7"/>
-      <c r="H488" s="7"/>
-      <c r="I488" s="7"/>
-      <c r="J488" s="4">
+      <c r="F488" s="5"/>
+      <c r="G488" s="5"/>
+      <c r="H488" s="5"/>
+      <c r="I488" s="5"/>
+      <c r="J488" s="7">
         <v>1919</v>
       </c>
-    </row>
-    <row r="489" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L488" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
         <v>170</v>
       </c>
@@ -14525,8 +16568,12 @@
       <c r="I489" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="490" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L489" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>170</v>
       </c>
@@ -14552,8 +16599,12 @@
       <c r="I490" s="2">
         <v>225</v>
       </c>
-    </row>
-    <row r="491" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L490" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>170</v>
       </c>
@@ -14579,8 +16630,12 @@
       <c r="I491" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="492" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L491" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
         <v>170</v>
       </c>
@@ -14606,8 +16661,15 @@
       <c r="I492" s="2">
         <v>195</v>
       </c>
-    </row>
-    <row r="493" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J492" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L492" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Roffo, Paula' and Producto='Jabon liquido tocador c/glic.Coniglio Botella 1 lt Distribuidora Total' </v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
         <v>170</v>
       </c>
@@ -14633,8 +16695,15 @@
       <c r="I493" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="494" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J493" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L493" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Roffo, Paula' and Producto='Jamon Cocido Natural, Torgelon. 300 grs. aprox.' </v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
         <v>170</v>
       </c>
@@ -14660,8 +16729,12 @@
       <c r="I494" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="495" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L494" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
         <v>170</v>
       </c>
@@ -14687,8 +16760,15 @@
       <c r="I495" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="496" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J495" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L495" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Roffo, Paula' and Producto='Limones Agroecologicos, bolsa 1 kg.' </v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
         <v>170</v>
       </c>
@@ -14714,8 +16794,15 @@
       <c r="I496" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="497" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J496" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L496" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Roffo, Paula' and Producto='Muzzarella, Septimo Varon. 1,2 Kg (aproximado).' </v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
         <v>170</v>
       </c>
@@ -14741,8 +16828,12 @@
       <c r="I497" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="498" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L497" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>170</v>
       </c>
@@ -14768,8 +16859,12 @@
       <c r="I498" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="499" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L498" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>170</v>
       </c>
@@ -14795,8 +16890,12 @@
       <c r="I499" s="2">
         <v>205</v>
       </c>
-    </row>
-    <row r="500" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L499" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>170</v>
       </c>
@@ -14822,8 +16921,12 @@
       <c r="I500" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="501" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L500" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>170</v>
       </c>
@@ -14836,18 +16939,22 @@
       <c r="D501" s="2">
         <v>1</v>
       </c>
-      <c r="E501" s="7" t="s">
+      <c r="E501" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F501" s="7"/>
-      <c r="G501" s="7"/>
-      <c r="H501" s="7"/>
-      <c r="I501" s="7"/>
-      <c r="J501" s="4">
+      <c r="F501" s="5"/>
+      <c r="G501" s="5"/>
+      <c r="H501" s="5"/>
+      <c r="I501" s="5"/>
+      <c r="J501" s="7">
         <v>3932</v>
       </c>
-    </row>
-    <row r="502" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L501" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>170</v>
       </c>
@@ -14873,8 +16980,12 @@
       <c r="I502" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="503" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L502" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
         <v>170</v>
       </c>
@@ -14900,8 +17011,15 @@
       <c r="I503" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="504" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J503" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L503" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=4 where Entrega='20201010' and Vecine='Rojo, Romina' and Producto='Arroz Doble Carolina, Namaca. 500grs' </v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
         <v>170</v>
       </c>
@@ -14927,8 +17045,12 @@
       <c r="I504" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="505" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L504" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
         <v>170</v>
       </c>
@@ -14954,8 +17076,12 @@
       <c r="I505" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="506" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L505" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
         <v>170</v>
       </c>
@@ -14981,8 +17107,12 @@
       <c r="I506" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="507" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L506" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="507" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
         <v>170</v>
       </c>
@@ -15008,8 +17138,12 @@
       <c r="I507" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="508" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L507" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="508" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
         <v>170</v>
       </c>
@@ -15035,8 +17169,12 @@
       <c r="I508" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="509" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L508" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
         <v>170</v>
       </c>
@@ -15062,8 +17200,12 @@
       <c r="I509" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="510" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L509" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
         <v>170</v>
       </c>
@@ -15089,8 +17231,16 @@
       <c r="I510" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="511" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L510" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M510" s="1">
+        <f>2065*0.9</f>
+        <v>1858.5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
         <v>170</v>
       </c>
@@ -15116,8 +17266,16 @@
       <c r="I511" s="2">
         <v>320</v>
       </c>
-    </row>
-    <row r="512" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L511" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M511" s="1">
+        <f>2065-1592-288</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
         <v>170</v>
       </c>
@@ -15143,8 +17301,12 @@
       <c r="I512" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="513" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L512" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
         <v>170</v>
       </c>
@@ -15170,8 +17332,12 @@
       <c r="I513" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="514" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L513" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="514" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>170</v>
       </c>
@@ -15197,8 +17363,12 @@
       <c r="I514" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="515" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L514" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>170</v>
       </c>
@@ -15224,8 +17394,12 @@
       <c r="I515" s="2">
         <v>740</v>
       </c>
-    </row>
-    <row r="516" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L515" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="516" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>170</v>
       </c>
@@ -15238,18 +17412,22 @@
       <c r="D516" s="2">
         <v>1</v>
       </c>
-      <c r="E516" s="7" t="s">
+      <c r="E516" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F516" s="7"/>
-      <c r="G516" s="7"/>
-      <c r="H516" s="7"/>
-      <c r="I516" s="7"/>
-      <c r="J516" s="4">
+      <c r="F516" s="5"/>
+      <c r="G516" s="5"/>
+      <c r="H516" s="5"/>
+      <c r="I516" s="5"/>
+      <c r="J516" s="7">
         <v>2065</v>
       </c>
-    </row>
-    <row r="517" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L516" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="517" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
         <v>170</v>
       </c>
@@ -15275,8 +17453,15 @@
       <c r="I517" s="2">
         <v>288</v>
       </c>
-    </row>
-    <row r="518" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J517" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L517" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Romero, Giselle' and Producto='Dulce de Leche, sin TACC, La Salamandra 1 Kg. carton' </v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
         <v>170</v>
       </c>
@@ -15302,8 +17487,12 @@
       <c r="I518" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="519" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L518" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="519" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>170</v>
       </c>
@@ -15329,8 +17518,12 @@
       <c r="I519" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="520" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L519" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="520" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
         <v>170</v>
       </c>
@@ -15356,8 +17549,12 @@
       <c r="I520" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="521" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L520" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="521" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
         <v>170</v>
       </c>
@@ -15383,8 +17580,12 @@
       <c r="I521" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="522" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L521" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="522" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
         <v>170</v>
       </c>
@@ -15410,8 +17611,15 @@
       <c r="I522" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="523" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J522" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L522" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Romero, Giselle' and Producto='Rollo de Cocina, Distribuidora Total. 2 unidades por 200 paños c/u' </v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
         <v>170</v>
       </c>
@@ -15437,8 +17645,12 @@
       <c r="I523" s="2">
         <v>550</v>
       </c>
-    </row>
-    <row r="524" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L523" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="524" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
         <v>170</v>
       </c>
@@ -15464,8 +17676,12 @@
       <c r="I524" s="2">
         <v>280</v>
       </c>
-    </row>
-    <row r="525" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L524" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="525" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>170</v>
       </c>
@@ -15478,18 +17694,22 @@
       <c r="D525" s="2">
         <v>1</v>
       </c>
-      <c r="E525" s="7" t="s">
+      <c r="E525" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F525" s="7"/>
-      <c r="G525" s="7"/>
-      <c r="H525" s="7"/>
-      <c r="I525" s="7"/>
-      <c r="J525" s="4">
+      <c r="F525" s="5"/>
+      <c r="G525" s="5"/>
+      <c r="H525" s="5"/>
+      <c r="I525" s="5"/>
+      <c r="J525" s="7">
         <v>1825</v>
       </c>
-    </row>
-    <row r="526" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L525" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="526" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
         <v>170</v>
       </c>
@@ -15515,8 +17735,12 @@
       <c r="I526" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="527" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L526" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="527" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
         <v>170</v>
       </c>
@@ -15542,8 +17766,12 @@
       <c r="I527" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="528" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L527" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="528" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
         <v>170</v>
       </c>
@@ -15569,8 +17797,12 @@
       <c r="I528" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="529" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L528" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="529" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
         <v>170</v>
       </c>
@@ -15596,8 +17828,12 @@
       <c r="I529" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="530" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L529" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="530" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
         <v>170</v>
       </c>
@@ -15623,8 +17859,12 @@
       <c r="I530" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="531" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L530" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="531" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
         <v>170</v>
       </c>
@@ -15650,8 +17890,12 @@
       <c r="I531" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="532" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L531" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="532" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
         <v>170</v>
       </c>
@@ -15677,8 +17921,12 @@
       <c r="I532" s="2">
         <v>320</v>
       </c>
-    </row>
-    <row r="533" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L532" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="533" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
         <v>170</v>
       </c>
@@ -15704,8 +17952,12 @@
       <c r="I533" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="534" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L533" s="1" t="str">
+        <f t="shared" ref="L533:L558" si="9">IF(J533="","",IF(LEFT(J533,1)="-","update Pedido set CantidadFaltante=" &amp; -J533 &amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C533 &amp; "' and Producto='" &amp; G533 &amp; "' ",IF(J533="x","update Pedido set CantidadFaltante=" &amp; E533&amp; " where Entrega='" &amp; $L$1 &amp; "' and Vecine='" &amp; C533 &amp; "' and Producto='" &amp; G533 &amp; "' ","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>170</v>
       </c>
@@ -15718,18 +17970,22 @@
       <c r="D534" s="2">
         <v>1</v>
       </c>
-      <c r="E534" s="7" t="s">
+      <c r="E534" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F534" s="7"/>
-      <c r="G534" s="7"/>
-      <c r="H534" s="7"/>
-      <c r="I534" s="7"/>
-      <c r="J534" s="4">
+      <c r="F534" s="5"/>
+      <c r="G534" s="5"/>
+      <c r="H534" s="5"/>
+      <c r="I534" s="5"/>
+      <c r="J534" s="7">
         <v>1218</v>
       </c>
-    </row>
-    <row r="535" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L534" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
         <v>170</v>
       </c>
@@ -15755,8 +18011,12 @@
       <c r="I535" s="2">
         <v>425</v>
       </c>
-    </row>
-    <row r="536" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L535" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="536" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
         <v>170</v>
       </c>
@@ -15782,8 +18042,12 @@
       <c r="I536" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="537" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L536" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="537" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
         <v>170</v>
       </c>
@@ -15809,8 +18073,15 @@
       <c r="I537" s="2">
         <v>288</v>
       </c>
-    </row>
-    <row r="538" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J537" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L537" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='tarasow, fabio' and Producto='Dulce de Leche, sin TACC, La Salamandra 1 Kg. carton' </v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
         <v>170</v>
       </c>
@@ -15836,8 +18107,12 @@
       <c r="I538" s="2">
         <v>242</v>
       </c>
-    </row>
-    <row r="539" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L538" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="539" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
         <v>170</v>
       </c>
@@ -15863,8 +18138,12 @@
       <c r="I539" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="540" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L539" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="540" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
         <v>170</v>
       </c>
@@ -15890,8 +18169,12 @@
       <c r="I540" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="541" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L540" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="541" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>170</v>
       </c>
@@ -15904,18 +18187,22 @@
       <c r="D541" s="2">
         <v>1</v>
       </c>
-      <c r="E541" s="7" t="s">
+      <c r="E541" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="F541" s="7"/>
-      <c r="G541" s="7"/>
-      <c r="H541" s="7"/>
-      <c r="I541" s="7"/>
-      <c r="J541" s="4">
+      <c r="F541" s="5"/>
+      <c r="G541" s="5"/>
+      <c r="H541" s="5"/>
+      <c r="I541" s="5"/>
+      <c r="J541" s="7">
         <v>3725</v>
       </c>
-    </row>
-    <row r="542" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L541" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="542" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>170</v>
       </c>
@@ -15941,8 +18228,12 @@
       <c r="I542" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="543" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L542" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="543" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
         <v>170</v>
       </c>
@@ -15968,8 +18259,15 @@
       <c r="I543" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="544" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J543" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L543" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Vaiani, Diego' and Producto='Dulce de Batata Blason - Cajon de 1 kg' </v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>170</v>
       </c>
@@ -15995,8 +18293,15 @@
       <c r="I544" s="2">
         <v>310</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J544" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L544" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Vaiani, Diego' and Producto='Dulce de Leche Repostero, sin TACC, La Salamandra carton 1 Kg. carton' </v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
         <v>170</v>
       </c>
@@ -16022,8 +18327,12 @@
       <c r="I545" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L545" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="546" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
         <v>170</v>
       </c>
@@ -16049,8 +18358,12 @@
       <c r="I546" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="547" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L546" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="547" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
         <v>170</v>
       </c>
@@ -16076,8 +18389,15 @@
       <c r="I547" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="548" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J547" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L547" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Vaiani, Diego' and Producto='Jamon Cocido Natural, Torgelon. 300 grs. aprox.' </v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
         <v>170</v>
       </c>
@@ -16103,8 +18423,12 @@
       <c r="I548" s="2">
         <v>520</v>
       </c>
-    </row>
-    <row r="549" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L548" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="549" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
         <v>170</v>
       </c>
@@ -16130,8 +18454,12 @@
       <c r="I549" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="550" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L549" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="550" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
         <v>170</v>
       </c>
@@ -16157,8 +18485,12 @@
       <c r="I550" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="551" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L550" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="551" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
         <v>170</v>
       </c>
@@ -16184,8 +18516,12 @@
       <c r="I551" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="552" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L551" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="552" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
         <v>170</v>
       </c>
@@ -16211,8 +18547,12 @@
       <c r="I552" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="553" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L552" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="553" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
         <v>170</v>
       </c>
@@ -16238,8 +18578,12 @@
       <c r="I553" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="554" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L553" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="554" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
         <v>170</v>
       </c>
@@ -16265,8 +18609,15 @@
       <c r="I554" s="2">
         <v>354</v>
       </c>
-    </row>
-    <row r="555" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J554" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L554" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=3 where Entrega='20201010' and Vecine='Vaiani, Diego' and Producto='Ravioles de Pollo y Espinaca La Litoraleña - 500 gr' </v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
         <v>170</v>
       </c>
@@ -16292,8 +18643,12 @@
       <c r="I555" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="556" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L555" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="556" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
         <v>170</v>
       </c>
@@ -16319,8 +18674,15 @@
       <c r="I556" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="557" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J556" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="L556" s="1" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">update Pedido set CantidadFaltante=1 where Entrega='20201010' and Vecine='Vaiani, Diego' and Producto='Yerba Mate Titrayju - 1 kg.' </v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="s">
         <v>170</v>
       </c>
@@ -16346,8 +18708,12 @@
       <c r="I557" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="558" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L557" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="558" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
         <v>170</v>
       </c>
@@ -16372,6 +18738,10 @@
       </c>
       <c r="I558" s="2">
         <v>85</v>
+      </c>
+      <c r="L558" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -16383,12 +18753,42 @@
     <sortCondition ref="G2:G558"/>
   </sortState>
   <mergeCells count="54">
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E541:I541"/>
+    <mergeCell ref="E444:I444"/>
+    <mergeCell ref="E446:I446"/>
+    <mergeCell ref="E453:I453"/>
+    <mergeCell ref="E473:I473"/>
+    <mergeCell ref="E475:I475"/>
+    <mergeCell ref="E481:I481"/>
+    <mergeCell ref="E488:I488"/>
+    <mergeCell ref="E501:I501"/>
+    <mergeCell ref="E516:I516"/>
+    <mergeCell ref="E525:I525"/>
+    <mergeCell ref="E534:I534"/>
+    <mergeCell ref="E438:I438"/>
+    <mergeCell ref="E322:I322"/>
+    <mergeCell ref="E328:I328"/>
+    <mergeCell ref="E359:I359"/>
+    <mergeCell ref="E367:I367"/>
+    <mergeCell ref="E384:I384"/>
+    <mergeCell ref="E388:I388"/>
+    <mergeCell ref="E394:I394"/>
+    <mergeCell ref="E399:I399"/>
+    <mergeCell ref="E413:I413"/>
+    <mergeCell ref="E432:I432"/>
+    <mergeCell ref="E435:I435"/>
+    <mergeCell ref="E297:I297"/>
+    <mergeCell ref="E220:I220"/>
+    <mergeCell ref="E236:I236"/>
+    <mergeCell ref="E244:I244"/>
+    <mergeCell ref="E257:I257"/>
+    <mergeCell ref="E265:I265"/>
+    <mergeCell ref="E270:I270"/>
+    <mergeCell ref="E274:I274"/>
+    <mergeCell ref="E277:I277"/>
+    <mergeCell ref="E279:I279"/>
+    <mergeCell ref="E283:I283"/>
+    <mergeCell ref="E289:I289"/>
     <mergeCell ref="E207:I207"/>
     <mergeCell ref="E57:I57"/>
     <mergeCell ref="E65:I65"/>
@@ -16401,42 +18801,12 @@
     <mergeCell ref="E155:I155"/>
     <mergeCell ref="E176:I176"/>
     <mergeCell ref="E194:I194"/>
-    <mergeCell ref="E297:I297"/>
-    <mergeCell ref="E220:I220"/>
-    <mergeCell ref="E236:I236"/>
-    <mergeCell ref="E244:I244"/>
-    <mergeCell ref="E257:I257"/>
-    <mergeCell ref="E265:I265"/>
-    <mergeCell ref="E270:I270"/>
-    <mergeCell ref="E274:I274"/>
-    <mergeCell ref="E277:I277"/>
-    <mergeCell ref="E279:I279"/>
-    <mergeCell ref="E283:I283"/>
-    <mergeCell ref="E289:I289"/>
-    <mergeCell ref="E438:I438"/>
-    <mergeCell ref="E322:I322"/>
-    <mergeCell ref="E328:I328"/>
-    <mergeCell ref="E359:I359"/>
-    <mergeCell ref="E367:I367"/>
-    <mergeCell ref="E384:I384"/>
-    <mergeCell ref="E388:I388"/>
-    <mergeCell ref="E394:I394"/>
-    <mergeCell ref="E399:I399"/>
-    <mergeCell ref="E413:I413"/>
-    <mergeCell ref="E432:I432"/>
-    <mergeCell ref="E435:I435"/>
-    <mergeCell ref="E541:I541"/>
-    <mergeCell ref="E444:I444"/>
-    <mergeCell ref="E446:I446"/>
-    <mergeCell ref="E453:I453"/>
-    <mergeCell ref="E473:I473"/>
-    <mergeCell ref="E475:I475"/>
-    <mergeCell ref="E481:I481"/>
-    <mergeCell ref="E488:I488"/>
-    <mergeCell ref="E501:I501"/>
-    <mergeCell ref="E516:I516"/>
-    <mergeCell ref="E525:I525"/>
-    <mergeCell ref="E534:I534"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E28:I28"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
